--- a/TP_Obj_9_2025_2_JLTC.xlsx
+++ b/TP_Obj_9_2025_2_JLTC.xlsx
@@ -241,7 +241,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,6 +251,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -322,11 +334,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -610,14 +624,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -666,15 +680,17 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="2">

--- a/TP_Obj_9_2025_2_JLTC.xlsx
+++ b/TP_Obj_9_2025_2_JLTC.xlsx
@@ -9,60 +9,62 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="7605"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="7605" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="OPTIMIZACION REFINERIA" sheetId="1" r:id="rId1"/>
-    <sheet name="Informe de sensibilidad 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Informe de sensibilidad 2" sheetId="3" r:id="rId1"/>
+    <sheet name="OPTIMIZACION REFINERIA" sheetId="1" r:id="rId2"/>
+    <sheet name="Informe de sensibilidad 1" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">'OPTIMIZACION REFINERIA'!$C$4:$C$6</definedName>
-    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'OPTIMIZACION REFINERIA'!$B$11</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'OPTIMIZACION REFINERIA'!$B$12</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'OPTIMIZACION REFINERIA'!$B$13</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'OPTIMIZACION REFINERIA'!$B$14</definedName>
-    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'OPTIMIZACION REFINERIA'!$B$15</definedName>
-    <definedName name="solver_lhs6" localSheetId="0" hidden="1">'OPTIMIZACION REFINERIA'!$C$4:$C$6</definedName>
-    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">6</definedName>
-    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">'OPTIMIZACION REFINERIA'!$C$8</definedName>
-    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel4" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel6" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'OPTIMIZACION REFINERIA'!$C$11</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'OPTIMIZACION REFINERIA'!$C$12</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">'OPTIMIZACION REFINERIA'!$C$13</definedName>
-    <definedName name="solver_rhs4" localSheetId="0" hidden="1">'OPTIMIZACION REFINERIA'!$C$14</definedName>
-    <definedName name="solver_rhs5" localSheetId="0" hidden="1">'OPTIMIZACION REFINERIA'!$C$15</definedName>
-    <definedName name="solver_rhs6" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'OPTIMIZACION REFINERIA'!$C$4:$C$6</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'OPTIMIZACION REFINERIA'!$B$11</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'OPTIMIZACION REFINERIA'!$B$12</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'OPTIMIZACION REFINERIA'!$B$13</definedName>
+    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'OPTIMIZACION REFINERIA'!$B$14</definedName>
+    <definedName name="solver_lhs5" localSheetId="1" hidden="1">'OPTIMIZACION REFINERIA'!$B$15</definedName>
+    <definedName name="solver_lhs6" localSheetId="1" hidden="1">'OPTIMIZACION REFINERIA'!$C$4:$C$6</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">6</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'OPTIMIZACION REFINERIA'!$C$8</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel5" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel6" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'OPTIMIZACION REFINERIA'!$C$11</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'OPTIMIZACION REFINERIA'!$C$12</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">'OPTIMIZACION REFINERIA'!$C$13</definedName>
+    <definedName name="solver_rhs4" localSheetId="1" hidden="1">'OPTIMIZACION REFINERIA'!$C$14</definedName>
+    <definedName name="solver_rhs5" localSheetId="1" hidden="1">'OPTIMIZACION REFINERIA'!$C$15</definedName>
+    <definedName name="solver_rhs6" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -72,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="49">
   <si>
     <t>TITULO: Operación Refinería</t>
   </si>
@@ -210,13 +212,22 @@
   </si>
   <si>
     <t>Holgura</t>
+  </si>
+  <si>
+    <t>UNIDAD DE REFINACION</t>
+  </si>
+  <si>
+    <t>Hoja de cálculo: [TP_Obj_9_2025_2_JLTC.xlsx]OPTIMIZACION REFINERIA</t>
+  </si>
+  <si>
+    <t>Informe creado: 10/09/2025 11:41:34 a.m.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,6 +239,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="18"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -317,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -338,8 +357,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -622,15 +649,331 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>-63.125</v>
+      </c>
+      <c r="F9" s="4">
+        <v>52.5</v>
+      </c>
+      <c r="G9" s="4">
+        <v>63.125</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4">
+        <v>156.25</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>85</v>
+      </c>
+      <c r="G10" s="4">
+        <v>195</v>
+      </c>
+      <c r="H10" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="5">
+        <v>325</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>70</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1E+30</v>
+      </c>
+      <c r="H11" s="5">
+        <v>42.083333333333336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="4">
+        <v>950</v>
+      </c>
+      <c r="E16" s="4">
+        <v>21.25</v>
+      </c>
+      <c r="F16" s="4">
+        <v>950</v>
+      </c>
+      <c r="G16" s="4">
+        <v>975</v>
+      </c>
+      <c r="H16" s="4">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="4">
+        <v>650</v>
+      </c>
+      <c r="E17" s="4">
+        <v>24.375</v>
+      </c>
+      <c r="F17" s="4">
+        <v>650</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1250</v>
+      </c>
+      <c r="H17" s="4">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="4">
+        <v>637.5</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1200</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1E+30</v>
+      </c>
+      <c r="H18" s="4">
+        <v>562.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="4">
+        <v>156.25</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>400</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1E+30</v>
+      </c>
+      <c r="H19" s="4">
+        <v>243.75</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
+        <v>480</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1E+30</v>
+      </c>
+      <c r="H20" s="5">
+        <v>480</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D17"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.42578125" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
   </cols>
@@ -680,12 +1023,14 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="10" t="s">
         <v>45</v>
       </c>
     </row>
@@ -700,6 +1045,10 @@
       <c r="C11" s="2">
         <v>950</v>
       </c>
+      <c r="D11">
+        <f>$C$11-$B$11</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -712,6 +1061,10 @@
       <c r="C12" s="2">
         <v>650</v>
       </c>
+      <c r="D12">
+        <f>$C$12-$B$12</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -725,7 +1078,7 @@
         <v>1200</v>
       </c>
       <c r="D13">
-        <f>1200-$B$13</f>
+        <f>C13-$B$13</f>
         <v>562.5</v>
       </c>
     </row>
@@ -756,13 +1109,20 @@
       <c r="C15" s="2">
         <v>480</v>
       </c>
+      <c r="D15">
+        <f>$C15-$B15</f>
+        <v>480</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B10:C10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
